--- a/results/ML/MLR_cat_enroll_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE4C8DF-E7FB-4CC5-9FD6-852AE36F0B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584140D1-A5CE-4E90-8C54-68C4162D76B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,10 +444,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.52506196395535087</v>
+        <v>0.28083642826960842</v>
       </c>
       <c r="C2" s="1">
-        <v>0.85747582966891778</v>
+        <v>0.86631504108253032</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -455,7 +455,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.33241386571356701</v>
+        <v>0.20315860626223561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.19725091881722531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.18506908773346101</v>
       </c>
     </row>
   </sheetData>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/principalComponentAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584140D1-A5CE-4E90-8C54-68C4162D76B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EE7CEC-61EE-47E8-8357-A05C4A92062A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EE7CEC-61EE-47E8-8357-A05C4A92062A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECADD346-099E-491A-89CB-9ED8A6AACE31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECADD346-099E-491A-89CB-9ED8A6AACE31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3271DD4-9DE0-491B-B29E-BE4F0054E4F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/principalComponentAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3271DD4-9DE0-491B-B29E-BE4F0054E4F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847D97E9-20D9-49AC-8111-EFE2DC4E328B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="evr" sheetId="1" r:id="rId1"/>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847D97E9-20D9-49AC-8111-EFE2DC4E328B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B293807-6DE8-40D2-9884-2FA77D950B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B293807-6DE8-40D2-9884-2FA77D950B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC3DD72-4C7E-4B63-84B8-A5D7030E8B0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="evr" sheetId="1" r:id="rId1"/>
